--- a/_Tool/配置表/test.xlsx
+++ b/_Tool/配置表/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16425" windowHeight="11790"/>
+    <workbookView windowWidth="30048" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,15 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>Id</t>
+    <t>唯一的Id</t>
+  </si>
+  <si>
+    <t>唯一的键</t>
   </si>
   <si>
     <t>名字</t>
@@ -36,6 +42,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>sjx</t>
+  </si>
+  <si>
     <t>送嘉兴</t>
   </si>
 </sst>
@@ -44,10 +53,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -66,12 +75,80 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -87,77 +164,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,37 +210,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -211,31 +220,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,151 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,6 +411,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -422,39 +464,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -464,17 +473,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,11 +497,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -522,133 +531,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,44 +1013,56 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1060,7 +1081,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1077,7 +1098,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/_Tool/配置表/test.xlsx
+++ b/_Tool/配置表/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -27,6 +27,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>syss</t>
+  </si>
+  <si>
+    <t>dadsa</t>
+  </si>
+  <si>
     <t>唯一的Id</t>
   </si>
   <si>
@@ -36,16 +42,37 @@
     <t>名字</t>
   </si>
   <si>
+    <t>链表</t>
+  </si>
+  <si>
+    <t>键值</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>Dictionary&lt;int,string&gt;</t>
+  </si>
+  <si>
     <t>sjx</t>
   </si>
   <si>
-    <t>送嘉兴</t>
+    <t>{送嘉兴,jadla}</t>
+  </si>
+  <si>
+    <t>{0,2,5,5}</t>
+  </si>
+  <si>
+    <t>[1,str][2,gdasgdl][50,dada]</t>
   </si>
 </sst>
 </file>
@@ -67,6 +94,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -75,6 +157,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -82,46 +171,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,81 +223,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -220,187 +247,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,11 +441,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,50 +506,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -497,17 +521,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,133 +558,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,15 +1040,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="11.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="34.8888888888889" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1031,38 +1063,62 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
